--- a/nds_dataset.xlsx
+++ b/nds_dataset.xlsx
@@ -10768,7 +10768,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -10778,8 +10778,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F3720"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A1056" zoomScale="130" zoomScaleNormal="130" zoomScalePageLayoutView="130" workbookViewId="0">
-      <selection activeCell="B810" sqref="B810"/>
+    <sheetView tabSelected="1" topLeftCell="A39" zoomScale="130" zoomScaleNormal="130" zoomScalePageLayoutView="130" workbookViewId="0">
+      <selection activeCell="D2326" sqref="D2326"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
@@ -36932,7 +36932,7 @@
         <v>50</v>
       </c>
       <c r="D2295" s="1">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="E2295" s="1" t="s">
         <v>1526</v>
@@ -54213,6 +54213,7 @@
       <c r="F3720" s="1"/>
     </row>
   </sheetData>
+  <autoFilter ref="A1:E3720"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
   <extLst>
